--- a/Payroll Example.xlsx
+++ b/Payroll Example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiddharthK\Desktop\Software Dev\Excel Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiddharthK\Desktop\Software Dev\Excel Workbooks\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,14 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -235,6 +227,14 @@
       <b/>
       <i/>
       <sz val="25"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -327,19 +327,19 @@
     <xf numFmtId="16" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -629,15 +629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="8" width="13.109375" customWidth="1"/>
     <col min="9" max="13" width="15.88671875" customWidth="1"/>
     <col min="14" max="18" width="19.6640625" customWidth="1"/>
@@ -832,7 +832,7 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
     </row>
-    <row r="4" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -841,114 +841,114 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">RANDBETWEEN(80,1000)</f>
-        <v>994</v>
+        <v>886</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:H18" ca="1" si="5">RANDBETWEEN(20,100)</f>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>56</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
       <c r="H4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="I4" s="11">
         <f ca="1">IF(D4&gt;40,D4-40,0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" ref="J4:M18" ca="1" si="6">IF(E4&gt;40,E4-40,0)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K4" s="11">
         <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
-      <c r="L4" s="11">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
       <c r="M4" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N4" s="13">
         <f ca="1">$C4*D4</f>
-        <v>89460</v>
+        <v>35440</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" ref="O4:R18" ca="1" si="7">$C4*E4</f>
-        <v>30814</v>
+        <v>60248</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>55664</v>
+        <v>76196</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>19880</v>
+        <v>49616</v>
       </c>
       <c r="R4" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>58646</v>
+        <v>83284</v>
       </c>
       <c r="S4" s="15">
         <f ca="1">0.5*$C4*I4</f>
-        <v>24850</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15">
         <f t="shared" ref="T4:T18" ca="1" si="8">0.5*$C4*J4</f>
-        <v>0</v>
+        <v>12404</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" ref="U4:U18" ca="1" si="9">0.5*$C4*K4</f>
-        <v>7952</v>
+        <v>20378</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" ref="V4:V18" ca="1" si="10">0.5*$C4*L4</f>
-        <v>0</v>
+        <v>7088</v>
       </c>
       <c r="W4" s="15">
         <f t="shared" ref="W4:W18" ca="1" si="11">0.5*$C4*M4</f>
-        <v>9443</v>
+        <v>23922</v>
       </c>
       <c r="X4" s="24">
         <f ca="1">SUM(N4+S4)</f>
-        <v>114310</v>
+        <v>35440</v>
       </c>
       <c r="Y4" s="24">
         <f ca="1">SUM(O4+T4)</f>
-        <v>30814</v>
+        <v>72652</v>
       </c>
       <c r="Z4" s="24">
-        <f t="shared" ref="Y4:AB4" ca="1" si="12">SUM(P4+U4)</f>
-        <v>63616</v>
+        <f t="shared" ref="Z4:AB4" ca="1" si="12">SUM(P4+U4)</f>
+        <v>96574</v>
       </c>
       <c r="AA4" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>19880</v>
+        <v>56704</v>
       </c>
       <c r="AB4" s="24">
         <f t="shared" ca="1" si="12"/>
-        <v>68089</v>
-      </c>
-      <c r="AC4" s="33">
+        <v>107206</v>
+      </c>
+      <c r="AC4" s="34">
         <f ca="1">SUM(X4:AB4)</f>
-        <v>296709</v>
+        <v>368576</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -957,19 +957,19 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C18" ca="1" si="13">RANDBETWEEN(80,1000)</f>
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="D5" s="9">
         <f ca="1">RANDBETWEEN(20,100)</f>
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -977,19 +977,19 @@
       </c>
       <c r="H5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" ref="I5:I18" ca="1" si="14">IF(D5&gt;40,D5-40,0)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" ca="1" si="6"/>
@@ -997,74 +997,74 @@
       </c>
       <c r="M5" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" ref="N5:N18" ca="1" si="15">$C5*D5</f>
-        <v>6438</v>
+        <v>31208</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>10614</v>
+        <v>11952</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>8352</v>
+        <v>24236</v>
       </c>
       <c r="Q5" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>9048</v>
+        <v>17264</v>
       </c>
       <c r="R5" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>7482</v>
+        <v>17264</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" ref="S5:S18" ca="1" si="16">0.5*$C5*I5</f>
-        <v>0</v>
+        <v>8964</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>1827</v>
+        <v>0</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>696</v>
+        <v>5478</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>1044</v>
+        <v>1992</v>
       </c>
       <c r="W5" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>261</v>
+        <v>1992</v>
       </c>
       <c r="X5" s="24">
-        <f t="shared" ref="X4:X18" ca="1" si="17">SUM(N5+S5)</f>
-        <v>6438</v>
+        <f t="shared" ref="X5:X18" ca="1" si="17">SUM(N5+S5)</f>
+        <v>40172</v>
       </c>
       <c r="Y5" s="24">
         <f t="shared" ref="Y5:Y18" ca="1" si="18">SUM(O5+T5)</f>
-        <v>12441</v>
+        <v>11952</v>
       </c>
       <c r="Z5" s="24">
         <f t="shared" ref="Z5:Z18" ca="1" si="19">SUM(P5+U5)</f>
-        <v>9048</v>
+        <v>29714</v>
       </c>
       <c r="AA5" s="24">
         <f t="shared" ref="AA5:AA18" ca="1" si="20">SUM(Q5+V5)</f>
-        <v>10092</v>
+        <v>19256</v>
       </c>
       <c r="AB5" s="24">
         <f t="shared" ref="AB5:AB18" ca="1" si="21">SUM(R5+W5)</f>
-        <v>7743</v>
-      </c>
-      <c r="AC5" s="33">
+        <v>19256</v>
+      </c>
+      <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC18" ca="1" si="22">SUM(X5:AB5)</f>
-        <v>45762</v>
+        <v>120350</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1073,114 +1073,114 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D18" ca="1" si="23">RANDBETWEEN(20,100)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>14637</v>
+        <v>8856</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>16072</v>
+        <v>3608</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>21812</v>
+        <v>14104</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>26117</v>
+        <v>10332</v>
       </c>
       <c r="R6" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>16359</v>
+        <v>3936</v>
       </c>
       <c r="S6" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>1578.5</v>
+        <v>1148</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2296</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>5166</v>
+        <v>3772</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>7318.5</v>
+        <v>1886</v>
       </c>
       <c r="W6" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>2439.5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>16215.5</v>
+        <v>10004</v>
       </c>
       <c r="Y6" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>18368</v>
+        <v>3608</v>
       </c>
       <c r="Z6" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>26978</v>
+        <v>17876</v>
       </c>
       <c r="AA6" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>33435.5</v>
+        <v>12218</v>
       </c>
       <c r="AB6" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>18798.5</v>
-      </c>
-      <c r="AC6" s="33">
+        <v>3936</v>
+      </c>
+      <c r="AC6" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>113795.5</v>
+        <v>47642</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1189,114 +1189,114 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>884</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L7" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>35360</v>
+        <v>10101</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>70720</v>
+        <v>8991</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>88400</v>
+        <v>5772</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>61880</v>
+        <v>9768</v>
       </c>
       <c r="R7" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>33592</v>
+        <v>5439</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>2830.5</v>
       </c>
       <c r="T7" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>17680</v>
+        <v>2275.5</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>26520</v>
+        <v>666</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>13260</v>
+        <v>2664</v>
       </c>
       <c r="W7" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>499.5</v>
       </c>
       <c r="X7" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>35360</v>
+        <v>12931.5</v>
       </c>
       <c r="Y7" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>88400</v>
+        <v>11266.5</v>
       </c>
       <c r="Z7" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>114920</v>
+        <v>6438</v>
       </c>
       <c r="AA7" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>75140</v>
+        <v>12432</v>
       </c>
       <c r="AB7" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>33592</v>
-      </c>
-      <c r="AC7" s="33">
+        <v>5938.5</v>
+      </c>
+      <c r="AC7" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>347412</v>
+        <v>49006.5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1305,114 +1305,114 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>516</v>
+        <v>593</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>51600</v>
+        <v>17197</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>44376</v>
+        <v>53370</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>11352</v>
+        <v>58707</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>20640</v>
+        <v>34987</v>
       </c>
       <c r="R8" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>23220</v>
+        <v>41510</v>
       </c>
       <c r="S8" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>15480</v>
+        <v>0</v>
       </c>
       <c r="T8" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>11868</v>
+        <v>14825</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>17493.5</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5633.5</v>
       </c>
       <c r="W8" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>1290</v>
+        <v>8895</v>
       </c>
       <c r="X8" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>67080</v>
+        <v>17197</v>
       </c>
       <c r="Y8" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>56244</v>
+        <v>68195</v>
       </c>
       <c r="Z8" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>11352</v>
+        <v>76200.5</v>
       </c>
       <c r="AA8" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>20640</v>
+        <v>40620.5</v>
       </c>
       <c r="AB8" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>24510</v>
-      </c>
-      <c r="AC8" s="33">
+        <v>50405</v>
+      </c>
+      <c r="AC8" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>179826</v>
+        <v>252618</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>155</v>
+        <v>411</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="14"/>
@@ -1453,35 +1453,35 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>4495</v>
+        <v>13563</v>
       </c>
       <c r="O9" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>4030</v>
+        <v>14385</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>7750</v>
+        <v>9453</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>13175</v>
+        <v>26715</v>
       </c>
       <c r="R9" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>15345</v>
+        <v>12741</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" ca="1" si="16"/>
@@ -1493,42 +1493,42 @@
       </c>
       <c r="U9" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>3487.5</v>
+        <v>5137.5</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>4572.5</v>
+        <v>0</v>
       </c>
       <c r="X9" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>4495</v>
+        <v>13563</v>
       </c>
       <c r="Y9" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>4030</v>
+        <v>14385</v>
       </c>
       <c r="Z9" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>8525</v>
+        <v>9453</v>
       </c>
       <c r="AA9" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>16662.5</v>
+        <v>31852.5</v>
       </c>
       <c r="AB9" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>19917.5</v>
-      </c>
-      <c r="AC9" s="33">
+        <v>12741</v>
+      </c>
+      <c r="AC9" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>53630</v>
+        <v>81994.5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1537,114 +1537,114 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>400</v>
+        <v>721</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>23600</v>
+        <v>15141</v>
       </c>
       <c r="O10" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>29600</v>
+        <v>34608</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>37200</v>
+        <v>22351</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>31600</v>
+        <v>69937</v>
       </c>
       <c r="R10" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>34400</v>
+        <v>36050</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>6800</v>
+        <v>2884</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>7800</v>
+        <v>20548.5</v>
       </c>
       <c r="W10" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>9200</v>
+        <v>3605</v>
       </c>
       <c r="X10" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>27400</v>
+        <v>15141</v>
       </c>
       <c r="Y10" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>36400</v>
+        <v>37492</v>
       </c>
       <c r="Z10" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>47800</v>
+        <v>22351</v>
       </c>
       <c r="AA10" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>39400</v>
+        <v>90485.5</v>
       </c>
       <c r="AB10" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>43600</v>
-      </c>
-      <c r="AC10" s="33">
+        <v>39655</v>
+      </c>
+      <c r="AC10" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>194600</v>
+        <v>205124.5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1653,11 +1653,11 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -1665,19 +1665,19 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" ca="1" si="6"/>
@@ -1685,82 +1685,82 @@
       </c>
       <c r="K11" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>25410</v>
+        <v>26160</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>24024</v>
+        <v>22672</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>34650</v>
+        <v>21800</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>39732</v>
+        <v>17876</v>
       </c>
       <c r="R11" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>25410</v>
+        <v>9592</v>
       </c>
       <c r="S11" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>3465</v>
+        <v>4360</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2772</v>
+        <v>2616</v>
       </c>
       <c r="U11" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>8085</v>
+        <v>2180</v>
       </c>
       <c r="V11" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>10626</v>
+        <v>218</v>
       </c>
       <c r="W11" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X11" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>28875</v>
+        <v>30520</v>
       </c>
       <c r="Y11" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>26796</v>
+        <v>25288</v>
       </c>
       <c r="Z11" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>42735</v>
+        <v>23980</v>
       </c>
       <c r="AA11" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>50358</v>
+        <v>18094</v>
       </c>
       <c r="AB11" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>28875</v>
-      </c>
-      <c r="AC11" s="33">
+        <v>9592</v>
+      </c>
+      <c r="AC11" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>177639</v>
+        <v>107474</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1769,39 +1769,39 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>822</v>
+        <v>613</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>80</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
-      </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" ca="1" si="6"/>
         <v>40</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
       </c>
       <c r="L12" s="11">
         <f t="shared" ca="1" si="6"/>
@@ -1813,35 +1813,35 @@
       </c>
       <c r="N12" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>65760</v>
+        <v>42910</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>18084</v>
+        <v>39845</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>53430</v>
+        <v>49040</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>24660</v>
+        <v>23294</v>
       </c>
       <c r="R12" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>26304</v>
+        <v>22681</v>
       </c>
       <c r="S12" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>16440</v>
+        <v>9195</v>
       </c>
       <c r="T12" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>7662.5</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>10275</v>
+        <v>12260</v>
       </c>
       <c r="V12" s="15">
         <f t="shared" ca="1" si="10"/>
@@ -1853,30 +1853,30 @@
       </c>
       <c r="X12" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>82200</v>
+        <v>52105</v>
       </c>
       <c r="Y12" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>18084</v>
+        <v>47507.5</v>
       </c>
       <c r="Z12" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>63705</v>
+        <v>61300</v>
       </c>
       <c r="AA12" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>24660</v>
+        <v>23294</v>
       </c>
       <c r="AB12" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>26304</v>
-      </c>
-      <c r="AC12" s="33">
+        <v>22681</v>
+      </c>
+      <c r="AC12" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>214953</v>
+        <v>206887.5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1885,114 +1885,114 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>557</v>
+        <v>975</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>40104</v>
+        <v>51675</v>
       </c>
       <c r="O13" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>20052</v>
+        <v>92625</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>37876</v>
+        <v>68250</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>14482</v>
+        <v>65325</v>
       </c>
       <c r="R13" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>18381</v>
+        <v>40950</v>
       </c>
       <c r="S13" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>8912</v>
+        <v>6337.5</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>26812.5</v>
       </c>
       <c r="U13" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>7798</v>
+        <v>14625</v>
       </c>
       <c r="V13" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>13162.5</v>
       </c>
       <c r="W13" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="X13" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>49016</v>
+        <v>58012.5</v>
       </c>
       <c r="Y13" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>20052</v>
+        <v>119437.5</v>
       </c>
       <c r="Z13" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>45674</v>
+        <v>82875</v>
       </c>
       <c r="AA13" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>14482</v>
+        <v>78487.5</v>
       </c>
       <c r="AB13" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>18381</v>
-      </c>
-      <c r="AC13" s="33">
+        <v>41925</v>
+      </c>
+      <c r="AC13" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>147605</v>
+        <v>380737.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2001,35 +2001,35 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>811</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" ca="1" si="6"/>
@@ -2037,39 +2037,39 @@
       </c>
       <c r="L14" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>2275</v>
+        <v>41361</v>
       </c>
       <c r="O14" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>7735</v>
+        <v>16220</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>2275</v>
+        <v>24330</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>4459</v>
+        <v>56770</v>
       </c>
       <c r="R14" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>6643</v>
+        <v>37306</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>4460.5</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>2047.5</v>
+        <v>0</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" ca="1" si="9"/>
@@ -2077,38 +2077,38 @@
       </c>
       <c r="V14" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>409.5</v>
+        <v>12165</v>
       </c>
       <c r="W14" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>1501.5</v>
+        <v>2433</v>
       </c>
       <c r="X14" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>2275</v>
+        <v>45821.5</v>
       </c>
       <c r="Y14" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>9782.5</v>
+        <v>16220</v>
       </c>
       <c r="Z14" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>2275</v>
+        <v>24330</v>
       </c>
       <c r="AA14" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>4868.5</v>
+        <v>68935</v>
       </c>
       <c r="AB14" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>8144.5</v>
-      </c>
-      <c r="AC14" s="33">
+        <v>39739</v>
+      </c>
+      <c r="AC14" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>27345.5</v>
+        <v>195045.5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2117,27 +2117,27 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>727</v>
+        <v>109</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="14"/>
@@ -2145,39 +2145,39 @@
       </c>
       <c r="J15" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>15994</v>
+        <v>4142</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>51617</v>
+        <v>4687</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>35623</v>
+        <v>7957</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>33442</v>
+        <v>5886</v>
       </c>
       <c r="R15" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>32715</v>
+        <v>9265</v>
       </c>
       <c r="S15" s="15">
         <f t="shared" ca="1" si="16"/>
@@ -2185,46 +2185,46 @@
       </c>
       <c r="T15" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>11268.5</v>
+        <v>163.5</v>
       </c>
       <c r="U15" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>3271.5</v>
+        <v>1798.5</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>2181</v>
+        <v>763</v>
       </c>
       <c r="W15" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>1817.5</v>
+        <v>2452.5</v>
       </c>
       <c r="X15" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>15994</v>
+        <v>4142</v>
       </c>
       <c r="Y15" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>62885.5</v>
+        <v>4850.5</v>
       </c>
       <c r="Z15" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>38894.5</v>
+        <v>9755.5</v>
       </c>
       <c r="AA15" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>35623</v>
+        <v>6649</v>
       </c>
       <c r="AB15" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>34532.5</v>
-      </c>
-      <c r="AC15" s="33">
+        <v>11717.5</v>
+      </c>
+      <c r="AC15" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>187929.5</v>
+        <v>37114.5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2233,114 +2233,114 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>807</v>
+        <v>693</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N16" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>54876</v>
+        <v>65142</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>71823</v>
+        <v>60984</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>38736</v>
+        <v>15939</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>50034</v>
+        <v>17325</v>
       </c>
       <c r="R16" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>41157</v>
+        <v>40194</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>11298</v>
+        <v>18711</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>19771.5</v>
+        <v>16632</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>3228</v>
+        <v>0</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>8877</v>
+        <v>0</v>
       </c>
       <c r="W16" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>4438.5</v>
+        <v>6237</v>
       </c>
       <c r="X16" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>66174</v>
+        <v>83853</v>
       </c>
       <c r="Y16" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>91594.5</v>
+        <v>77616</v>
       </c>
       <c r="Z16" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>41964</v>
+        <v>15939</v>
       </c>
       <c r="AA16" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>58911</v>
+        <v>17325</v>
       </c>
       <c r="AB16" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>45595.5</v>
-      </c>
-      <c r="AC16" s="33">
+        <v>46431</v>
+      </c>
+      <c r="AC16" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>304239</v>
+        <v>241164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2349,114 +2349,114 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N17" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>40160</v>
+        <v>37492</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>28614</v>
+        <v>17716</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>15562</v>
+        <v>35020</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>34638</v>
+        <v>14008</v>
       </c>
       <c r="R17" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>26606</v>
+        <v>39140</v>
       </c>
       <c r="S17" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>10040</v>
+        <v>10506</v>
       </c>
       <c r="T17" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>4267</v>
+        <v>618</v>
       </c>
       <c r="U17" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9270</v>
       </c>
       <c r="V17" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>7279</v>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>3263</v>
+        <v>11330</v>
       </c>
       <c r="X17" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>50200</v>
+        <v>47998</v>
       </c>
       <c r="Y17" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>32881</v>
+        <v>18334</v>
       </c>
       <c r="Z17" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>15562</v>
+        <v>44290</v>
       </c>
       <c r="AA17" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>41917</v>
+        <v>14008</v>
       </c>
       <c r="AB17" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>29869</v>
-      </c>
-      <c r="AC17" s="33">
+        <v>50470</v>
+      </c>
+      <c r="AC17" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>170429</v>
+        <v>175100</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2465,111 +2465,111 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" ca="1" si="15"/>
-        <v>20679</v>
+        <v>34632</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>13560</v>
+        <v>42809</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>22374</v>
+        <v>10101</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>7119</v>
+        <v>33189</v>
       </c>
       <c r="R18" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>20001</v>
+        <v>42328</v>
       </c>
       <c r="S18" s="15">
         <f t="shared" ca="1" si="16"/>
-        <v>3559.5</v>
+        <v>7696</v>
       </c>
       <c r="T18" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>11784.5</v>
       </c>
       <c r="U18" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>4407</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6974.5</v>
       </c>
       <c r="W18" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>3220.5</v>
+        <v>11544</v>
       </c>
       <c r="X18" s="24">
         <f t="shared" ca="1" si="17"/>
-        <v>24238.5</v>
+        <v>42328</v>
       </c>
       <c r="Y18" s="24">
         <f t="shared" ca="1" si="18"/>
-        <v>13560</v>
+        <v>54593.5</v>
       </c>
       <c r="Z18" s="24">
         <f t="shared" ca="1" si="19"/>
-        <v>26781</v>
+        <v>10101</v>
       </c>
       <c r="AA18" s="24">
         <f t="shared" ca="1" si="20"/>
-        <v>7119</v>
+        <v>40163.5</v>
       </c>
       <c r="AB18" s="24">
         <f t="shared" ca="1" si="21"/>
-        <v>23221.5</v>
-      </c>
-      <c r="AC18" s="33">
+        <v>53872</v>
+      </c>
+      <c r="AC18" s="34">
         <f t="shared" ca="1" si="22"/>
-        <v>94920</v>
+        <v>201058</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -2578,111 +2578,111 @@
       </c>
       <c r="C21" s="1">
         <f ca="1">MAX(C4:C18)</f>
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="D21" s="5">
         <f ca="1">MAX(D4:D18)</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ref="E21:AC21" ca="1" si="24">MAX(E4:E18)</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" ca="1" si="24"/>
-        <v>59</v>
-      </c>
-      <c r="N21" s="34">
+        <v>55</v>
+      </c>
+      <c r="N21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>89460</v>
-      </c>
-      <c r="O21" s="34">
+        <v>65142</v>
+      </c>
+      <c r="O21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>71823</v>
-      </c>
-      <c r="P21" s="34">
+        <v>92625</v>
+      </c>
+      <c r="P21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>88400</v>
-      </c>
-      <c r="Q21" s="34">
+        <v>76196</v>
+      </c>
+      <c r="Q21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>61880</v>
-      </c>
-      <c r="R21" s="34">
+        <v>69937</v>
+      </c>
+      <c r="R21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>58646</v>
-      </c>
-      <c r="S21" s="34">
+        <v>83284</v>
+      </c>
+      <c r="S21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>24850</v>
-      </c>
-      <c r="T21" s="34">
+        <v>18711</v>
+      </c>
+      <c r="T21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>19771.5</v>
-      </c>
-      <c r="U21" s="34">
+        <v>26812.5</v>
+      </c>
+      <c r="U21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>26520</v>
-      </c>
-      <c r="V21" s="34">
+        <v>20378</v>
+      </c>
+      <c r="V21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>13260</v>
-      </c>
-      <c r="W21" s="34">
+        <v>20548.5</v>
+      </c>
+      <c r="W21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>9443</v>
-      </c>
-      <c r="X21" s="34">
+        <v>23922</v>
+      </c>
+      <c r="X21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>114310</v>
-      </c>
-      <c r="Y21" s="34">
+        <v>83853</v>
+      </c>
+      <c r="Y21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>91594.5</v>
-      </c>
-      <c r="Z21" s="34">
+        <v>119437.5</v>
+      </c>
+      <c r="Z21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>114920</v>
-      </c>
-      <c r="AA21" s="34">
+        <v>96574</v>
+      </c>
+      <c r="AA21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>75140</v>
-      </c>
-      <c r="AB21" s="34">
+        <v>90485.5</v>
+      </c>
+      <c r="AB21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>68089</v>
-      </c>
-      <c r="AC21" s="34">
+        <v>107206</v>
+      </c>
+      <c r="AC21" s="33">
         <f t="shared" ca="1" si="24"/>
-        <v>347412</v>
+        <v>380737.5</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -2691,27 +2691,27 @@
       </c>
       <c r="C22" s="1">
         <f ca="1">MIN(C4:C18)</f>
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D22" s="5">
         <f ca="1">MIN(D4:D18)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ref="E22:AC22" ca="1" si="25">MIN(E4:E18)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="25"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" ca="1" si="25"/>
@@ -2733,69 +2733,69 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>2275</v>
-      </c>
-      <c r="O22" s="34">
+        <v>4142</v>
+      </c>
+      <c r="O22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>4030</v>
-      </c>
-      <c r="P22" s="34">
+        <v>3608</v>
+      </c>
+      <c r="P22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>2275</v>
-      </c>
-      <c r="Q22" s="34">
+        <v>5772</v>
+      </c>
+      <c r="Q22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>4459</v>
-      </c>
-      <c r="R22" s="34">
+        <v>5886</v>
+      </c>
+      <c r="R22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>6643</v>
-      </c>
-      <c r="S22" s="34">
+        <v>3936</v>
+      </c>
+      <c r="S22" s="33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22" s="33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="U22" s="34">
+      <c r="U22" s="33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="V22" s="34">
+      <c r="V22" s="33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22" s="33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="X22" s="34">
+      <c r="X22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>2275</v>
-      </c>
-      <c r="Y22" s="34">
+        <v>4142</v>
+      </c>
+      <c r="Y22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>4030</v>
-      </c>
-      <c r="Z22" s="34">
+        <v>3608</v>
+      </c>
+      <c r="Z22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>2275</v>
-      </c>
-      <c r="AA22" s="34">
+        <v>6438</v>
+      </c>
+      <c r="AA22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>4868.5</v>
-      </c>
-      <c r="AB22" s="34">
+        <v>6649</v>
+      </c>
+      <c r="AB22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>7743</v>
-      </c>
-      <c r="AC22" s="34">
+        <v>3936</v>
+      </c>
+      <c r="AC22" s="33">
         <f t="shared" ca="1" si="25"/>
-        <v>27345.5</v>
+        <v>37114.5</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -2804,111 +2804,111 @@
       </c>
       <c r="C23" s="1">
         <f ca="1">AVERAGE(C4:C18)</f>
-        <v>514.4666666666667</v>
+        <v>516.5333333333333</v>
       </c>
       <c r="D23" s="4">
         <f ca="1">AVERAGE(D4:D18)</f>
-        <v>57.93333333333333</v>
+        <v>59.4</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ref="E23:AC23" ca="1" si="26">AVERAGE(E4:E18)</f>
-        <v>57.733333333333334</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>58.133333333333333</v>
+        <v>58.8</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>55.06666666666667</v>
+        <v>58.533333333333331</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>55.2</v>
+        <v>56.2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>21.066666666666666</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>20.733333333333334</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>20.933333333333334</v>
+        <v>23.6</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>19.266666666666666</v>
+        <v>20.066666666666666</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" ca="1" si="26"/>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="N23" s="34">
+        <v>19.266666666666666</v>
+      </c>
+      <c r="N23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>32723.200000000001</v>
-      </c>
-      <c r="O23" s="34">
+        <v>29001.333333333332</v>
+      </c>
+      <c r="O23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>29449</v>
-      </c>
-      <c r="P23" s="34">
+        <v>32314.666666666668</v>
+      </c>
+      <c r="P23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>31403.733333333334</v>
-      </c>
-      <c r="Q23" s="34">
+        <v>29550.400000000001</v>
+      </c>
+      <c r="Q23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>26060.400000000001</v>
-      </c>
-      <c r="R23" s="34">
+        <v>30152.799999999999</v>
+      </c>
+      <c r="R23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>25750.733333333334</v>
-      </c>
-      <c r="S23" s="34">
+        <v>29445.333333333332</v>
+      </c>
+      <c r="S23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>6628.2</v>
-      </c>
-      <c r="T23" s="34">
+        <v>4947.2333333333336</v>
+      </c>
+      <c r="T23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>5373.166666666667</v>
-      </c>
-      <c r="U23" s="34">
+        <v>6578.5</v>
+      </c>
+      <c r="U23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>5918.2333333333336</v>
-      </c>
-      <c r="V23" s="34">
+        <v>5861.4</v>
+      </c>
+      <c r="V23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>4152.166666666667</v>
-      </c>
-      <c r="W23" s="34">
+        <v>5215.5</v>
+      </c>
+      <c r="W23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>2994.1333333333332</v>
-      </c>
-      <c r="X23" s="34">
+        <v>4925.666666666667</v>
+      </c>
+      <c r="X23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>39351.4</v>
-      </c>
-      <c r="Y23" s="34">
+        <v>33948.566666666666</v>
+      </c>
+      <c r="Y23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>34822.166666666664</v>
-      </c>
-      <c r="Z23" s="34">
+        <v>38893.166666666664</v>
+      </c>
+      <c r="Z23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>37321.966666666667</v>
-      </c>
-      <c r="AA23" s="34">
+        <v>35411.800000000003</v>
+      </c>
+      <c r="AA23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>30212.566666666666</v>
-      </c>
-      <c r="AB23" s="34">
+        <v>35368.300000000003</v>
+      </c>
+      <c r="AB23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>28744.866666666665</v>
-      </c>
-      <c r="AC23" s="34">
+        <v>34371</v>
+      </c>
+      <c r="AC23" s="33">
         <f t="shared" ca="1" si="26"/>
-        <v>170452.96666666667</v>
+        <v>177992.83333333334</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -2917,111 +2917,111 @@
       </c>
       <c r="C24" s="1">
         <f ca="1">SUM(C4:C18)</f>
-        <v>7717</v>
+        <v>7748</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:N24" ca="1" si="27">SUM(D4:D18)</f>
-        <v>869</v>
+        <f t="shared" ref="D24" ca="1" si="27">SUM(D4:D18)</f>
+        <v>891</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ref="E24:AC24" ca="1" si="28">SUM(E4:E18)</f>
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>826</v>
+        <v>878</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" ca="1" si="28"/>
-        <v>245</v>
-      </c>
-      <c r="N24" s="34">
+        <v>289</v>
+      </c>
+      <c r="N24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>490848</v>
-      </c>
-      <c r="O24" s="34">
+        <v>435020</v>
+      </c>
+      <c r="O24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>441735</v>
-      </c>
-      <c r="P24" s="34">
+        <v>484720</v>
+      </c>
+      <c r="P24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>471056</v>
-      </c>
-      <c r="Q24" s="34">
+        <v>443256</v>
+      </c>
+      <c r="Q24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>390906</v>
-      </c>
-      <c r="R24" s="34">
+        <v>452292</v>
+      </c>
+      <c r="R24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>386261</v>
-      </c>
-      <c r="S24" s="34">
+        <v>441680</v>
+      </c>
+      <c r="S24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>99423</v>
-      </c>
-      <c r="T24" s="34">
+        <v>74208.5</v>
+      </c>
+      <c r="T24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>80597.5</v>
-      </c>
-      <c r="U24" s="34">
+        <v>98677.5</v>
+      </c>
+      <c r="U24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>88773.5</v>
-      </c>
-      <c r="V24" s="34">
+        <v>87921</v>
+      </c>
+      <c r="V24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>62282.5</v>
-      </c>
-      <c r="W24" s="34">
+        <v>78232.5</v>
+      </c>
+      <c r="W24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>44912</v>
-      </c>
-      <c r="X24" s="34">
+        <v>73885</v>
+      </c>
+      <c r="X24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>590271</v>
-      </c>
-      <c r="Y24" s="34">
+        <v>509228.5</v>
+      </c>
+      <c r="Y24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>522332.5</v>
-      </c>
-      <c r="Z24" s="34">
+        <v>583397.5</v>
+      </c>
+      <c r="Z24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>559829.5</v>
-      </c>
-      <c r="AA24" s="34">
+        <v>531177</v>
+      </c>
+      <c r="AA24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>453188.5</v>
-      </c>
-      <c r="AB24" s="34">
+        <v>530524.5</v>
+      </c>
+      <c r="AB24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>431173</v>
-      </c>
-      <c r="AC24" s="34">
+        <v>515565</v>
+      </c>
+      <c r="AC24" s="33">
         <f t="shared" ca="1" si="28"/>
-        <v>2556794.5</v>
+        <v>2669892.5</v>
       </c>
     </row>
   </sheetData>
